--- a/mapsStats.xlsx
+++ b/mapsStats.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>teamId</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Heroic</t>
+  </si>
+  <si>
+    <t>Vitality</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
@@ -496,6 +499,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9565</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>55.6</v>
+      </c>
+      <c r="D3">
+        <v>59.4</v>
+      </c>
+      <c r="E3">
+        <v>62.3</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>68.1</v>
+      </c>
+      <c r="H3">
+        <v>62.6</v>
+      </c>
+      <c r="I3">
+        <v>67.9</v>
+      </c>
+      <c r="J3">
+        <v>71.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/mapsStats.xlsx
+++ b/mapsStats.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>teamId</t>
   </si>
@@ -47,6 +47,69 @@
   </si>
   <si>
     <t>Vitality</t>
+  </si>
+  <si>
+    <t>Natus Vincere</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>FaZe</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>FURIA</t>
+  </si>
+  <si>
+    <t>ENCE</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>MOUZ</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>Ninjas in Pyjamas</t>
+  </si>
+  <si>
+    <t>fnatic</t>
+  </si>
+  <si>
+    <t>FORZE</t>
+  </si>
+  <si>
+    <t>paiN</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>9INE</t>
+  </si>
+  <si>
+    <t>Bad News Eagles</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
+    <t>TheMongolz</t>
   </si>
 </sst>
 </file>
@@ -423,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
@@ -531,6 +594,678 @@
         <v>71.4</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>63.3</v>
+      </c>
+      <c r="D4">
+        <v>59.6</v>
+      </c>
+      <c r="E4">
+        <v>59.6</v>
+      </c>
+      <c r="F4">
+        <v>65.7</v>
+      </c>
+      <c r="G4">
+        <v>61.4</v>
+      </c>
+      <c r="H4">
+        <v>55.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5995</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>51.8</v>
+      </c>
+      <c r="D5">
+        <v>60.8</v>
+      </c>
+      <c r="E5">
+        <v>59.2</v>
+      </c>
+      <c r="F5">
+        <v>50.3</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>57.5</v>
+      </c>
+      <c r="I5">
+        <v>53.1</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>59.2</v>
+      </c>
+      <c r="D6">
+        <v>56.6</v>
+      </c>
+      <c r="E6">
+        <v>56.6</v>
+      </c>
+      <c r="F6">
+        <v>51.6</v>
+      </c>
+      <c r="G6">
+        <v>57.8</v>
+      </c>
+      <c r="H6">
+        <v>61.3</v>
+      </c>
+      <c r="I6">
+        <v>33.3</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5752</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>60.1</v>
+      </c>
+      <c r="D7">
+        <v>42.5</v>
+      </c>
+      <c r="E7">
+        <v>61.5</v>
+      </c>
+      <c r="F7">
+        <v>62.8</v>
+      </c>
+      <c r="G7">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>50.2</v>
+      </c>
+      <c r="I7">
+        <v>56.2</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5973</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>60.5</v>
+      </c>
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>56.5</v>
+      </c>
+      <c r="G8">
+        <v>62.4</v>
+      </c>
+      <c r="H8">
+        <v>61.1</v>
+      </c>
+      <c r="I8">
+        <v>59.2</v>
+      </c>
+      <c r="J8">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>65.2</v>
+      </c>
+      <c r="D9">
+        <v>57.3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>63.3</v>
+      </c>
+      <c r="G9">
+        <v>60.8</v>
+      </c>
+      <c r="H9">
+        <v>61.3</v>
+      </c>
+      <c r="I9">
+        <v>64.6</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4869</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>56.8</v>
+      </c>
+      <c r="D10">
+        <v>62.4</v>
+      </c>
+      <c r="E10">
+        <v>59.7</v>
+      </c>
+      <c r="F10">
+        <v>67.3</v>
+      </c>
+      <c r="G10">
+        <v>46.7</v>
+      </c>
+      <c r="H10">
+        <v>41.5</v>
+      </c>
+      <c r="I10">
+        <v>55.6</v>
+      </c>
+      <c r="J10">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5378</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>56.1</v>
+      </c>
+      <c r="D11">
+        <v>60.2</v>
+      </c>
+      <c r="E11">
+        <v>53.2</v>
+      </c>
+      <c r="F11">
+        <v>50.7</v>
+      </c>
+      <c r="G11">
+        <v>51</v>
+      </c>
+      <c r="H11">
+        <v>52.9</v>
+      </c>
+      <c r="I11">
+        <v>47.9</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4494</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>53.7</v>
+      </c>
+      <c r="D12">
+        <v>47.6</v>
+      </c>
+      <c r="E12">
+        <v>55.4</v>
+      </c>
+      <c r="F12">
+        <v>42.1</v>
+      </c>
+      <c r="G12">
+        <v>50.8</v>
+      </c>
+      <c r="H12">
+        <v>54.6</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10503</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>56.1</v>
+      </c>
+      <c r="D13">
+        <v>50.3</v>
+      </c>
+      <c r="E13">
+        <v>64.1</v>
+      </c>
+      <c r="F13">
+        <v>52.3</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>56.8</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7532</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>59.6</v>
+      </c>
+      <c r="D14">
+        <v>58.4</v>
+      </c>
+      <c r="E14">
+        <v>51.3</v>
+      </c>
+      <c r="F14">
+        <v>58.5</v>
+      </c>
+      <c r="G14">
+        <v>56.3</v>
+      </c>
+      <c r="H14">
+        <v>64.4</v>
+      </c>
+      <c r="I14">
+        <v>49.2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4411</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>58.7</v>
+      </c>
+      <c r="E15">
+        <v>60.1</v>
+      </c>
+      <c r="F15">
+        <v>53.1</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <v>62.1</v>
+      </c>
+      <c r="I15">
+        <v>46.2</v>
+      </c>
+      <c r="J15">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4991</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>57.6</v>
+      </c>
+      <c r="D16">
+        <v>75.6</v>
+      </c>
+      <c r="E16">
+        <v>76.8</v>
+      </c>
+      <c r="F16">
+        <v>46.3</v>
+      </c>
+      <c r="G16">
+        <v>60.2</v>
+      </c>
+      <c r="H16">
+        <v>57.3</v>
+      </c>
+      <c r="I16">
+        <v>60.2</v>
+      </c>
+      <c r="J16">
+        <v>70.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>56.8</v>
+      </c>
+      <c r="D17">
+        <v>50.8</v>
+      </c>
+      <c r="E17">
+        <v>47.6</v>
+      </c>
+      <c r="F17">
+        <v>44.4</v>
+      </c>
+      <c r="G17">
+        <v>48.1</v>
+      </c>
+      <c r="H17">
+        <v>50.4</v>
+      </c>
+      <c r="I17">
+        <v>48.5</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4773</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>50.9</v>
+      </c>
+      <c r="D18">
+        <v>66.7</v>
+      </c>
+      <c r="E18">
+        <v>47.5</v>
+      </c>
+      <c r="F18">
+        <v>33.3</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>18.8</v>
+      </c>
+      <c r="I18">
+        <v>69.5</v>
+      </c>
+      <c r="J18">
+        <v>78.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5005</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>55.4</v>
+      </c>
+      <c r="D19">
+        <v>55.8</v>
+      </c>
+      <c r="E19">
+        <v>64.8</v>
+      </c>
+      <c r="F19">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>55.8</v>
+      </c>
+      <c r="H19">
+        <v>53.3</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>71.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>50.6</v>
+      </c>
+      <c r="D20">
+        <v>37.5</v>
+      </c>
+      <c r="E20">
+        <v>60.5</v>
+      </c>
+      <c r="F20">
+        <v>55.3</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>46.1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11518</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>45.1</v>
+      </c>
+      <c r="D21">
+        <v>52.3</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>51.3</v>
+      </c>
+      <c r="G21">
+        <v>58.3</v>
+      </c>
+      <c r="H21">
+        <v>58.9</v>
+      </c>
+      <c r="I21">
+        <v>49.6</v>
+      </c>
+      <c r="J21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>65.3</v>
+      </c>
+      <c r="D22">
+        <v>67.8</v>
+      </c>
+      <c r="E22">
+        <v>83.6</v>
+      </c>
+      <c r="F22">
+        <v>66.7</v>
+      </c>
+      <c r="G22">
+        <v>79.2</v>
+      </c>
+      <c r="H22">
+        <v>72.7</v>
+      </c>
+      <c r="I22">
+        <v>76.9</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11811</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>59.8</v>
+      </c>
+      <c r="D23">
+        <v>42.6</v>
+      </c>
+      <c r="E23">
+        <v>50.8</v>
+      </c>
+      <c r="F23">
+        <v>34.5</v>
+      </c>
+      <c r="G23">
+        <v>55.7</v>
+      </c>
+      <c r="H23">
+        <v>55.6</v>
+      </c>
+      <c r="I23">
+        <v>54.5</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>48.6</v>
+      </c>
+      <c r="D24">
+        <v>42.1</v>
+      </c>
+      <c r="E24">
+        <v>48.5</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>60.7</v>
+      </c>
+      <c r="H24">
+        <v>57.5</v>
+      </c>
+      <c r="I24">
+        <v>50.6</v>
+      </c>
+      <c r="J24">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
